--- a/biology/Écologie/Timothy_R._McClanahan/Timothy_R._McClanahan.xlsx
+++ b/biology/Écologie/Timothy_R._McClanahan/Timothy_R._McClanahan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Timothy Rice McClanahan (souvent abrégé en « Tim [R.] McClanahan ») est un biologiste américain né en 1957 à New Haven dans le Connecticut, « senior conservation zoologist » au sein de la Wildlife Conservation Society[1]. Il est célèbre pour ses importants travaux portant sur l'écologie marine des écosystèmes coralliens. Il vit et travaille à Mombasa (Kenya), où il  s'intéresse notamment à l'interaction entre les sociétés humaines et les récifs de corail de l'océan indien occidental ; il y dirige également le programme scientifique Coral Reefs Program for eastern Africa.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Timothy Rice McClanahan (souvent abrégé en « Tim [R.] McClanahan ») est un biologiste américain né en 1957 à New Haven dans le Connecticut, « senior conservation zoologist » au sein de la Wildlife Conservation Society. Il est célèbre pour ses importants travaux portant sur l'écologie marine des écosystèmes coralliens. Il vit et travaille à Mombasa (Kenya), où il  s'intéresse notamment à l'interaction entre les sociétés humaines et les récifs de corail de l'océan indien occidental ; il y dirige également le programme scientifique Coral Reefs Program for eastern Africa.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Études et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">McClanahan a obtenu une licence de biologie en 1981 à l'Université de Californie à Santa Cruz. Il obtient son master en 1984 puis une bourse de thèse à l'Université de Floride, en 1990, sous la direction du célèbre écologue Howard T. Odum[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McClanahan a obtenu une licence de biologie en 1981 à l'Université de Californie à Santa Cruz. Il obtient son master en 1984 puis une bourse de thèse à l'Université de Floride, en 1990, sous la direction du célèbre écologue Howard T. Odum.
 McClanahan intègre le Coral Reefs Conservation Project de la Wildlife Conservation Society en 1991 comme assistant de recherche avant d'y être nommé coordinateur du projet pour le Kenya. Il est également Senior Conservation Zoologist de la côte africaine pour la WildLife Conservation Society. 
 Il fait aussi partie du comité éditorial de nombreuses revues internationales, comme Marine Ecology Progress Series, Ecosystems, Environmental Conservation, Global Change Biology ou encore Aquatic Conservation.
 </t>
@@ -544,11 +558,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">McClanahan a principalement étudié l'écologie des écosystèmes coralliens, et notamment ceux de l'océan indien occidental (côte africaine, Madagascar, Seychelles, îles Éparses de l'océan Indien et Mascareignes…). Il s'intéresse aussi à l'interaction entre l'homme et l'environnement dans les milieux coralliens, notamment aux pêcheries, à la pollution et au réchauffement climatique[3]. Ses principaux collaborateur sont son épouse Nyawira Muthiga, mais aussi Joshua Cinner, Nick Graham, ou encore Joseph Maina[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McClanahan a principalement étudié l'écologie des écosystèmes coralliens, et notamment ceux de l'océan indien occidental (côte africaine, Madagascar, Seychelles, îles Éparses de l'océan Indien et Mascareignes…). Il s'intéresse aussi à l'interaction entre l'homme et l'environnement dans les milieux coralliens, notamment aux pêcheries, à la pollution et au réchauffement climatique. Ses principaux collaborateur sont son épouse Nyawira Muthiga, mais aussi Joshua Cinner, Nick Graham, ou encore Joseph Maina. 
 Il a publié plus de 100 articles dans des grandes revues scientifiques, 20 chapitres d'ouvrages, dirigé 4 livres, compilé les actes de 7 symposiums et publié de nombreux autres types de travaux, dont des articles renommés, des éditoriaux pour de grandes revues ou encore des présentations d'ouvrages. 
-D'après une évaluation menée par l’International Scientific Information (ISI, organisme chargé de compiler la littérature scientifique), il serait le deuxième écologue corallien le plus cité au monde pour les 10 dernières années[2], avec plus de 16 000 citations[4] de ses plus de 300 articles[3]. 
+D'après une évaluation menée par l’International Scientific Information (ISI, organisme chargé de compiler la littérature scientifique), il serait le deuxième écologue corallien le plus cité au monde pour les 10 dernières années, avec plus de 16 000 citations de ses plus de 300 articles. 
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">McClanahan a notamment reçu :
 le titre de Pew Fellows Program in Marine Conservation en 1996
@@ -612,7 +630,9 @@
           <t>Quelques publications majeures</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Boris Worm, Ray Hilborn, Julia K Baum, Trevor A Branch, Jeremy S Collie, Christopher Costello, Michael J Fogarty, Elizabeth A Fulton, Jeffrey A Hutchings, Simon Jennings, Olaf P Jensen, Heike K Lotze, Pamela M Mace, Tim R McClanahan, Cóilín Minto, Stephen R Palumbi, Ana M Parma, Daniel Ricard, Andrew A Rosenberg, Reg Watson, Dirk Zeller, 2009. Rebuilding global fisheries, Science 325 (5940), 578-585
 AC Baker, CJ Starger, TR McClanahan, PW Glynn, 2004. Coral reefs: corals' adaptive response to climate change, Nature 430 (7001), 741-741
@@ -664,9 +684,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">McClanahan est marié à la zoologiste Nyawira Muthiga[5]. Il l'a rencontrée dans les années 1980, lors d'un programme d'études à l'étranger au Kenya[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">McClanahan est marié à la zoologiste Nyawira Muthiga. Il l'a rencontrée dans les années 1980, lors d'un programme d'études à l'étranger au Kenya.
 </t>
         </is>
       </c>
